--- a/applications/Brazil/Rio_validation.xlsx
+++ b/applications/Brazil/Rio_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>18345</v>
+        <v>18288</v>
       </c>
       <c r="B3">
-        <v>24633</v>
+        <v>25337</v>
       </c>
       <c r="C3">
-        <v>30982</v>
+        <v>31581</v>
       </c>
       <c r="D3">
-        <v>57160</v>
+        <v>57634</v>
       </c>
       <c r="I3">
-        <v>2222</v>
+        <v>2395</v>
       </c>
       <c r="J3">
-        <v>2567</v>
+        <v>2868</v>
       </c>
       <c r="K3">
-        <v>3257</v>
+        <v>3516</v>
       </c>
       <c r="L3">
-        <v>7435</v>
+        <v>8289</v>
       </c>
     </row>
   </sheetData>
